--- a/data/selected_contigs.xlsx
+++ b/data/selected_contigs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/github/rujinlong/p0062/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/github/rujinlong/phydgene/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8218F580-2767-E647-B727-957F0E02F7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A375E37D-5E05-0047-BB89-B4CBB0D37FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" activeTab="1" xr2:uid="{63FCF472-8B88-5247-B4C7-90C4ACAAFA01}"/>
+    <workbookView xWindow="28800" yWindow="-7080" windowWidth="51200" windowHeight="27480" activeTab="1" xr2:uid="{63FCF472-8B88-5247-B4C7-90C4ACAAFA01}"/>
   </bookViews>
   <sheets>
     <sheet name="3contigs" sheetId="6" r:id="rId1"/>
@@ -687,15 +687,15 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
@@ -792,7 +792,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
